--- a/WorkBot/main/backend/orders/OrderFiles/Hill & Markes/Hill & Markes _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Hill & Markes/Hill & Markes _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,141 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>INPSDR0120ITHACABAKERY</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cup - Hot (12oz)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$63.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$63.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>H7658PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bag Trash - 38x58</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$38.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$38.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FIS508</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bag - Wax (Sandwich)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$126.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$21.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>406020</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Spoon Soup - White MW</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$10.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$10.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NPP406028</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fork - White HW</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$16.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$16.30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
